--- a/Data Entry/Tissue Drying/NAR/NAR March_October 2020 - Muscle.xlsx
+++ b/Data Entry/Tissue Drying/NAR/NAR March_October 2020 - Muscle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpitti\Documents\GitHub\triploid-walleye-labwork\Data Entry\Tissue Drying\NAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travisgg\Documents\GitHub\triploid-walleye-labwork\Data Entry\Tissue Drying\NAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1181,14 +1181,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E270" sqref="E270"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="G273" sqref="G273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1233,6 +1234,12 @@
       <c r="E2">
         <v>5.35</v>
       </c>
+      <c r="F2" s="1">
+        <v>44224</v>
+      </c>
+      <c r="G2">
+        <v>2.48</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1250,6 +1257,12 @@
       <c r="E3">
         <v>13.26</v>
       </c>
+      <c r="F3" s="1">
+        <v>44224</v>
+      </c>
+      <c r="G3">
+        <v>4.32</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1267,6 +1280,12 @@
       <c r="E4">
         <v>7.55</v>
       </c>
+      <c r="F4" s="1">
+        <v>44224</v>
+      </c>
+      <c r="G4">
+        <v>3.21</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1284,6 +1303,12 @@
       <c r="E5">
         <v>14.15</v>
       </c>
+      <c r="F5" s="1">
+        <v>44224</v>
+      </c>
+      <c r="G5">
+        <v>4.43</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1301,6 +1326,12 @@
       <c r="E6">
         <v>12.74</v>
       </c>
+      <c r="F6" s="1">
+        <v>44224</v>
+      </c>
+      <c r="G6">
+        <v>4.1399999999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1318,6 +1349,12 @@
       <c r="E7">
         <v>17.21</v>
       </c>
+      <c r="F7" s="1">
+        <v>44224</v>
+      </c>
+      <c r="G7">
+        <v>4.84</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1335,6 +1372,12 @@
       <c r="E8">
         <v>12.89</v>
       </c>
+      <c r="F8" s="1">
+        <v>44224</v>
+      </c>
+      <c r="G8">
+        <v>4.0599999999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1352,6 +1395,12 @@
       <c r="E9">
         <v>22.25</v>
       </c>
+      <c r="F9" s="1">
+        <v>44224</v>
+      </c>
+      <c r="G9">
+        <v>6.05</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1369,6 +1418,12 @@
       <c r="E10">
         <v>9.3000000000000007</v>
       </c>
+      <c r="F10" s="1">
+        <v>44224</v>
+      </c>
+      <c r="G10">
+        <v>3.39</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1386,6 +1441,12 @@
       <c r="E11">
         <v>17.82</v>
       </c>
+      <c r="F11" s="1">
+        <v>44224</v>
+      </c>
+      <c r="G11">
+        <v>5.26</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1403,6 +1464,12 @@
       <c r="E12">
         <v>15.49</v>
       </c>
+      <c r="F12" s="1">
+        <v>44224</v>
+      </c>
+      <c r="G12">
+        <v>4.62</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1420,6 +1487,12 @@
       <c r="E13">
         <v>16.68</v>
       </c>
+      <c r="F13" s="1">
+        <v>44224</v>
+      </c>
+      <c r="G13">
+        <v>5.04</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1437,6 +1510,12 @@
       <c r="E14">
         <v>10.06</v>
       </c>
+      <c r="F14" s="1">
+        <v>44224</v>
+      </c>
+      <c r="G14">
+        <v>3.71</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1454,6 +1533,12 @@
       <c r="E15">
         <v>14.56</v>
       </c>
+      <c r="F15" s="1">
+        <v>44224</v>
+      </c>
+      <c r="G15">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1471,8 +1556,14 @@
       <c r="E16">
         <v>10.49</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G16">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1579,14 @@
       <c r="E17">
         <v>23.92</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G17">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1505,8 +1602,14 @@
       <c r="E18">
         <v>8.7100000000000009</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G18">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1522,8 +1625,14 @@
       <c r="E19">
         <v>12.12</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1539,8 +1648,14 @@
       <c r="E20">
         <v>8.93</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G20">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1556,8 +1671,14 @@
       <c r="E21">
         <v>21.78</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G21">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1573,8 +1694,14 @@
       <c r="E22">
         <v>11.55</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G22">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1590,8 +1717,14 @@
       <c r="E23">
         <v>16.66</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G23">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1607,8 +1740,14 @@
       <c r="E24">
         <v>12.12</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G24">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1624,8 +1763,14 @@
       <c r="E25">
         <v>12.63</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G25">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1641,8 +1786,14 @@
       <c r="E26">
         <v>7.15</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G26">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1658,8 +1809,14 @@
       <c r="E27">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G27">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1675,8 +1832,14 @@
       <c r="E28">
         <v>8.92</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G28">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1692,8 +1855,14 @@
       <c r="E29">
         <v>7.38</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G29">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1709,8 +1878,14 @@
       <c r="E30">
         <v>12.74</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G30">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1726,8 +1901,14 @@
       <c r="E31">
         <v>10.66</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G31">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1743,8 +1924,14 @@
       <c r="E32">
         <v>17.989999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G32">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1760,8 +1947,14 @@
       <c r="E33">
         <v>10.71</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G33">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1777,8 +1970,14 @@
       <c r="E34">
         <v>14.08</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G34">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1993,14 @@
       <c r="E35">
         <v>8.27</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G35">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1811,8 +2016,14 @@
       <c r="E36">
         <v>10.69</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G36">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1828,8 +2039,14 @@
       <c r="E37">
         <v>4.2699999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G37">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1845,8 +2062,14 @@
       <c r="E38">
         <v>5.32</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G38">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1862,8 +2085,14 @@
       <c r="E39">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G39">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1879,8 +2108,14 @@
       <c r="E40">
         <v>16.04</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G40">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1896,8 +2131,14 @@
       <c r="E41">
         <v>12.34</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G41">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1913,8 +2154,14 @@
       <c r="E42">
         <v>19.32</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G42">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1930,8 +2177,14 @@
       <c r="E43">
         <v>14.26</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G43">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1947,8 +2200,14 @@
       <c r="E44">
         <v>8.7899999999999991</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G44">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -1964,8 +2223,14 @@
       <c r="E45">
         <v>13.54</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G45">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1981,8 +2246,14 @@
       <c r="E46">
         <v>10.06</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G46">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1998,8 +2269,14 @@
       <c r="E47">
         <v>18.55</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G47">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2015,8 +2292,14 @@
       <c r="E48">
         <v>4.58</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G48">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -2032,8 +2315,14 @@
       <c r="E49">
         <v>10.72</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G49">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -2049,8 +2338,14 @@
       <c r="E50">
         <v>6.73</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G50">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -2066,8 +2361,14 @@
       <c r="E51">
         <v>22.11</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G51">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -2083,8 +2384,14 @@
       <c r="E52">
         <v>7.99</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G52">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -2100,8 +2407,14 @@
       <c r="E53">
         <v>21.02</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G53">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -2117,8 +2430,14 @@
       <c r="E54">
         <v>8.4499999999999993</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G54">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -2134,8 +2453,14 @@
       <c r="E55">
         <v>9.33</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G55">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -2151,8 +2476,14 @@
       <c r="E56">
         <v>9.5399999999999991</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G56">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2168,8 +2499,14 @@
       <c r="E57">
         <v>16.77</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G57">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -2185,8 +2522,14 @@
       <c r="E58">
         <v>9.25</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G58">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -2202,8 +2545,14 @@
       <c r="E59">
         <v>15.99</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G59">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -2219,8 +2568,14 @@
       <c r="E60">
         <v>9.49</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G60">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -2236,8 +2591,14 @@
       <c r="E61">
         <v>22.88</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G61">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -2253,8 +2614,14 @@
       <c r="E62">
         <v>15.08</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G62">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -2270,8 +2637,14 @@
       <c r="E63">
         <v>20.75</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G63">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -2287,8 +2660,14 @@
       <c r="E64">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G64">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -2304,8 +2683,14 @@
       <c r="E65">
         <v>12.52</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G65">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -2321,8 +2706,14 @@
       <c r="E66">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G66">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -2338,8 +2729,14 @@
       <c r="E67">
         <v>11.52</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G67">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -2355,8 +2752,14 @@
       <c r="E68">
         <v>10.95</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G68">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -2372,8 +2775,14 @@
       <c r="E69">
         <v>19.16</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G69">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -2389,8 +2798,14 @@
       <c r="E70">
         <v>11.97</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G70">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -2406,8 +2821,14 @@
       <c r="E71">
         <v>8.98</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G71">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -2423,8 +2844,14 @@
       <c r="E72">
         <v>10.51</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G72">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -2434,8 +2861,11 @@
       <c r="C73" s="1">
         <v>44207</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="1">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -2451,8 +2881,14 @@
       <c r="E74">
         <v>8.2899999999999991</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G74">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -2462,8 +2898,11 @@
       <c r="C75" s="1">
         <v>44207</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="1">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -2479,8 +2918,14 @@
       <c r="E76">
         <v>13.63</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G76">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -2490,8 +2935,11 @@
       <c r="C77" s="1">
         <v>44207</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="1">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -2501,8 +2949,11 @@
       <c r="C78" s="1">
         <v>44207</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="1">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -2512,8 +2963,11 @@
       <c r="C79" s="1">
         <v>44207</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="1">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>87</v>
       </c>
@@ -2529,8 +2983,14 @@
       <c r="E80">
         <v>10.26</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G80">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -2546,8 +3006,14 @@
       <c r="E81">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G81">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>89</v>
       </c>
@@ -2563,8 +3029,14 @@
       <c r="E82">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G82">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>90</v>
       </c>
@@ -2580,8 +3052,14 @@
       <c r="E83">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>91</v>
       </c>
@@ -2597,8 +3075,14 @@
       <c r="E84">
         <v>5.39</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G84">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
@@ -2614,8 +3098,14 @@
       <c r="E85">
         <v>5.24</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G85">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>93</v>
       </c>
@@ -2631,8 +3121,14 @@
       <c r="E86">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G86">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -2648,8 +3144,14 @@
       <c r="E87">
         <v>2.2400000000000002</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G87">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -2665,8 +3167,14 @@
       <c r="E88">
         <v>2.61</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G88">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>96</v>
       </c>
@@ -2682,8 +3190,14 @@
       <c r="E89">
         <v>10.44</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G89">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>97</v>
       </c>
@@ -2699,8 +3213,14 @@
       <c r="E90">
         <v>2.71</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G90">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>98</v>
       </c>
@@ -2716,8 +3236,14 @@
       <c r="E91">
         <v>8.32</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G91">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>99</v>
       </c>
@@ -2733,8 +3259,14 @@
       <c r="E92">
         <v>8.68</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G92">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>100</v>
       </c>
@@ -2750,8 +3282,14 @@
       <c r="E93">
         <v>11.09</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G93">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>101</v>
       </c>
@@ -2767,8 +3305,14 @@
       <c r="E94">
         <v>7.45</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G94">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>102</v>
       </c>
@@ -2784,8 +3328,14 @@
       <c r="E95">
         <v>10.09</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G95">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>103</v>
       </c>
@@ -2801,8 +3351,14 @@
       <c r="E96">
         <v>11.51</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G96">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>104</v>
       </c>
@@ -2818,8 +3374,14 @@
       <c r="E97">
         <v>11.73</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G97">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>105</v>
       </c>
@@ -2835,8 +3397,14 @@
       <c r="E98">
         <v>8.74</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G98">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>106</v>
       </c>
@@ -2852,8 +3420,14 @@
       <c r="E99">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G99">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>107</v>
       </c>
@@ -2869,8 +3443,14 @@
       <c r="E100">
         <v>5.16</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G100">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>108</v>
       </c>
@@ -2886,8 +3466,14 @@
       <c r="E101">
         <v>7.26</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G101">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>109</v>
       </c>
@@ -2903,8 +3489,14 @@
       <c r="E102">
         <v>7.71</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G102">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>110</v>
       </c>
@@ -2920,8 +3512,14 @@
       <c r="E103">
         <v>9.57</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G103">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>111</v>
       </c>
@@ -2937,8 +3535,14 @@
       <c r="E104">
         <v>8.2100000000000009</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G104">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>112</v>
       </c>
@@ -2954,8 +3558,14 @@
       <c r="E105">
         <v>6.22</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G105">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>113</v>
       </c>
@@ -2971,8 +3581,14 @@
       <c r="E106">
         <v>3.67</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G106">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>114</v>
       </c>
@@ -2988,8 +3604,14 @@
       <c r="E107">
         <v>6.88</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G107">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>115</v>
       </c>
@@ -3005,8 +3627,14 @@
       <c r="E108">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G108">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>116</v>
       </c>
@@ -3022,8 +3650,14 @@
       <c r="E109">
         <v>7.82</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G109">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>117</v>
       </c>
@@ -3039,8 +3673,14 @@
       <c r="E110">
         <v>4.78</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G110">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>118</v>
       </c>
@@ -3056,8 +3696,14 @@
       <c r="E111">
         <v>8.2899999999999991</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G111">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>119</v>
       </c>
@@ -3073,8 +3719,14 @@
       <c r="E112">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G112">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>120</v>
       </c>
@@ -3090,8 +3742,14 @@
       <c r="E113">
         <v>5.94</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G113">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>121</v>
       </c>
@@ -3107,8 +3765,14 @@
       <c r="E114">
         <v>7.79</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G114">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>122</v>
       </c>
@@ -3124,8 +3788,14 @@
       <c r="E115">
         <v>6.27</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G115">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>123</v>
       </c>
@@ -3141,8 +3811,14 @@
       <c r="E116">
         <v>5.59</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G116">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>124</v>
       </c>
@@ -3158,8 +3834,14 @@
       <c r="E117">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G117">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>125</v>
       </c>
@@ -3175,8 +3857,14 @@
       <c r="E118">
         <v>8.2100000000000009</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G118">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>126</v>
       </c>
@@ -3192,8 +3880,14 @@
       <c r="E119">
         <v>7.93</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G119">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>127</v>
       </c>
@@ -3209,8 +3903,14 @@
       <c r="E120">
         <v>7.06</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G120">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>128</v>
       </c>
@@ -3226,8 +3926,14 @@
       <c r="E121">
         <v>6.43</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G121">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>129</v>
       </c>
@@ -3243,8 +3949,14 @@
       <c r="E122">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G122">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>130</v>
       </c>
@@ -3260,8 +3972,14 @@
       <c r="E123">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G123">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>131</v>
       </c>
@@ -3277,8 +3995,14 @@
       <c r="E124">
         <v>5.68</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G124">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>132</v>
       </c>
@@ -3294,8 +4018,14 @@
       <c r="E125">
         <v>8.76</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G125">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>133</v>
       </c>
@@ -3311,8 +4041,14 @@
       <c r="E126">
         <v>6.26</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G126">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>134</v>
       </c>
@@ -3328,8 +4064,14 @@
       <c r="E127">
         <v>3.29</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>135</v>
       </c>
@@ -3345,8 +4087,14 @@
       <c r="E128">
         <v>2.5499999999999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G128">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>136</v>
       </c>
@@ -3362,8 +4110,14 @@
       <c r="E129">
         <v>4.16</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G129">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>137</v>
       </c>
@@ -3379,8 +4133,14 @@
       <c r="E130">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G130">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>138</v>
       </c>
@@ -3396,8 +4156,14 @@
       <c r="E131">
         <v>2.2400000000000002</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G131">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>139</v>
       </c>
@@ -3413,8 +4179,14 @@
       <c r="E132">
         <v>5.83</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G132">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>140</v>
       </c>
@@ -3430,8 +4202,14 @@
       <c r="E133">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G133">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>141</v>
       </c>
@@ -3447,8 +4225,14 @@
       <c r="E134">
         <v>4.03</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G134">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>142</v>
       </c>
@@ -3464,8 +4248,14 @@
       <c r="E135">
         <v>4.97</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G135">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>143</v>
       </c>
@@ -3481,8 +4271,14 @@
       <c r="E136">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G136">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>144</v>
       </c>
@@ -3498,8 +4294,14 @@
       <c r="E137">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G137">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>145</v>
       </c>
@@ -3515,8 +4317,14 @@
       <c r="E138">
         <v>8.7799999999999994</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G138">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>146</v>
       </c>
@@ -3532,8 +4340,14 @@
       <c r="E139">
         <v>7.85</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G139">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>147</v>
       </c>
@@ -3549,8 +4363,14 @@
       <c r="E140">
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G140">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -3566,8 +4386,14 @@
       <c r="E141">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G141">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>149</v>
       </c>
@@ -3583,8 +4409,14 @@
       <c r="E142">
         <v>5.34</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G142">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>150</v>
       </c>
@@ -3600,8 +4432,14 @@
       <c r="E143">
         <v>4.9400000000000004</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G143">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>151</v>
       </c>
@@ -3617,8 +4455,14 @@
       <c r="E144">
         <v>4.8899999999999997</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G144">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>152</v>
       </c>
@@ -3634,8 +4478,14 @@
       <c r="E145">
         <v>5.04</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G145">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>153</v>
       </c>
@@ -3651,8 +4501,14 @@
       <c r="E146">
         <v>8.61</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G146">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>154</v>
       </c>
@@ -3668,8 +4524,14 @@
       <c r="E147">
         <v>7.29</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G147">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>155</v>
       </c>
@@ -3685,8 +4547,14 @@
       <c r="E148">
         <v>7.91</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>156</v>
       </c>
@@ -3702,8 +4570,14 @@
       <c r="E149">
         <v>4.97</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G149">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>157</v>
       </c>
@@ -3719,8 +4593,14 @@
       <c r="E150">
         <v>6.09</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G150">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>158</v>
       </c>
@@ -3736,8 +4616,14 @@
       <c r="E151">
         <v>8.61</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G151">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>159</v>
       </c>
@@ -3753,8 +4639,14 @@
       <c r="E152">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G152">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>160</v>
       </c>
@@ -3770,8 +4662,14 @@
       <c r="E153">
         <v>7.87</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G153">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>161</v>
       </c>
@@ -3787,8 +4685,14 @@
       <c r="E154">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G154">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>162</v>
       </c>
@@ -3804,8 +4708,14 @@
       <c r="E155">
         <v>5.37</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G155">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>163</v>
       </c>
@@ -3821,8 +4731,14 @@
       <c r="E156">
         <v>6.85</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G156">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>164</v>
       </c>
@@ -3838,8 +4754,14 @@
       <c r="E157">
         <v>8.85</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G157">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>165</v>
       </c>
@@ -3855,8 +4777,14 @@
       <c r="E158">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G158">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>166</v>
       </c>
@@ -3872,8 +4800,14 @@
       <c r="E159">
         <v>6.99</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G159">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>167</v>
       </c>
@@ -3889,8 +4823,14 @@
       <c r="E160">
         <v>8.8699999999999992</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G160">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>168</v>
       </c>
@@ -3906,8 +4846,14 @@
       <c r="E161">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G161">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>169</v>
       </c>
@@ -3923,8 +4869,14 @@
       <c r="E162">
         <v>6.92</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G162">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>170</v>
       </c>
@@ -3940,8 +4892,14 @@
       <c r="E163">
         <v>7.98</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G163">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>171</v>
       </c>
@@ -3957,8 +4915,14 @@
       <c r="E164">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G164">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>172</v>
       </c>
@@ -3974,8 +4938,14 @@
       <c r="E165">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G165">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>173</v>
       </c>
@@ -3991,8 +4961,14 @@
       <c r="E166">
         <v>8.01</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G166">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>174</v>
       </c>
@@ -4008,8 +4984,14 @@
       <c r="E167">
         <v>4.5199999999999996</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G167">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>175</v>
       </c>
@@ -4025,8 +5007,14 @@
       <c r="E168">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G168">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>176</v>
       </c>
@@ -4042,8 +5030,14 @@
       <c r="E169">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G169">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>177</v>
       </c>
@@ -4059,8 +5053,14 @@
       <c r="E170">
         <v>8.59</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G170">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>178</v>
       </c>
@@ -4076,8 +5076,14 @@
       <c r="E171">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G171">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>179</v>
       </c>
@@ -4093,8 +5099,14 @@
       <c r="E172">
         <v>6.57</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G172">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>180</v>
       </c>
@@ -4110,8 +5122,14 @@
       <c r="E173">
         <v>1.88</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G173">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>181</v>
       </c>
@@ -4127,8 +5145,14 @@
       <c r="E174">
         <v>6.61</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G174">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>182</v>
       </c>
@@ -4144,8 +5168,14 @@
       <c r="E175">
         <v>10.61</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G175">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>183</v>
       </c>
@@ -4161,8 +5191,14 @@
       <c r="E176">
         <v>5.04</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G176">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>184</v>
       </c>
@@ -4178,8 +5214,14 @@
       <c r="E177">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G177">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>185</v>
       </c>
@@ -4195,8 +5237,14 @@
       <c r="E178">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G178">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>186</v>
       </c>
@@ -4212,8 +5260,14 @@
       <c r="E179">
         <v>6.02</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G179">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>187</v>
       </c>
@@ -4229,8 +5283,14 @@
       <c r="E180">
         <v>4.58</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G180">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>188</v>
       </c>
@@ -4246,8 +5306,14 @@
       <c r="E181">
         <v>4.67</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G181">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>189</v>
       </c>
@@ -4263,8 +5329,14 @@
       <c r="E182">
         <v>5.04</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G182">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>190</v>
       </c>
@@ -4280,8 +5352,14 @@
       <c r="E183">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G183">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>191</v>
       </c>
@@ -4297,8 +5375,14 @@
       <c r="E184">
         <v>6.01</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G184">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>192</v>
       </c>
@@ -4314,8 +5398,14 @@
       <c r="E185">
         <v>7.31</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G185">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>193</v>
       </c>
@@ -4331,8 +5421,14 @@
       <c r="E186">
         <v>5.05</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G186">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>194</v>
       </c>
@@ -4348,8 +5444,14 @@
       <c r="E187">
         <v>3.32</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>195</v>
       </c>
@@ -4365,8 +5467,14 @@
       <c r="E188">
         <v>6.38</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G188">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>196</v>
       </c>
@@ -4382,8 +5490,14 @@
       <c r="E189">
         <v>7.01</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G189">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>197</v>
       </c>
@@ -4399,8 +5513,14 @@
       <c r="E190">
         <v>5.34</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G190">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>198</v>
       </c>
@@ -4416,8 +5536,14 @@
       <c r="E191">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G191">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>199</v>
       </c>
@@ -4433,8 +5559,14 @@
       <c r="E192">
         <v>6.03</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G192">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>200</v>
       </c>
@@ -4450,8 +5582,14 @@
       <c r="E193">
         <v>6.38</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G193">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>201</v>
       </c>
@@ -4467,8 +5605,14 @@
       <c r="E194">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G194">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>202</v>
       </c>
@@ -4484,8 +5628,14 @@
       <c r="E195">
         <v>3.91</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G195">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>203</v>
       </c>
@@ -4501,8 +5651,14 @@
       <c r="E196">
         <v>6.34</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G196">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>204</v>
       </c>
@@ -4518,8 +5674,14 @@
       <c r="E197">
         <v>6.18</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G197">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>205</v>
       </c>
@@ -4535,8 +5697,14 @@
       <c r="E198">
         <v>7.19</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G198">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>206</v>
       </c>
@@ -4552,8 +5720,14 @@
       <c r="E199">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G199">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>207</v>
       </c>
@@ -4569,8 +5743,14 @@
       <c r="E200">
         <v>4.29</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G200">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>208</v>
       </c>
@@ -4586,8 +5766,14 @@
       <c r="E201">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G201">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>209</v>
       </c>
@@ -4603,8 +5789,14 @@
       <c r="E202">
         <v>5.04</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G202">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>210</v>
       </c>
@@ -4620,8 +5812,14 @@
       <c r="E203">
         <v>4.83</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G203">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>211</v>
       </c>
@@ -4637,8 +5835,14 @@
       <c r="E204">
         <v>3.36</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G204">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>212</v>
       </c>
@@ -4654,8 +5858,14 @@
       <c r="E205">
         <v>5.47</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G205">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>213</v>
       </c>
@@ -4671,8 +5881,14 @@
       <c r="E206">
         <v>4.43</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G206">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>214</v>
       </c>
@@ -4688,8 +5904,14 @@
       <c r="E207">
         <v>4.2699999999999996</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G207">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>215</v>
       </c>
@@ -4705,8 +5927,14 @@
       <c r="E208">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G208">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>216</v>
       </c>
@@ -4722,8 +5950,14 @@
       <c r="E209">
         <v>2.21</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G209">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>217</v>
       </c>
@@ -4739,8 +5973,14 @@
       <c r="E210">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G210">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>218</v>
       </c>
@@ -4756,8 +5996,14 @@
       <c r="E211">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G211">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>219</v>
       </c>
@@ -4773,8 +6019,14 @@
       <c r="E212">
         <v>3.85</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G212">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>220</v>
       </c>
@@ -4790,8 +6042,14 @@
       <c r="E213">
         <v>4.66</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G213">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>221</v>
       </c>
@@ -4807,8 +6065,14 @@
       <c r="E214">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G214">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>222</v>
       </c>
@@ -4824,8 +6088,14 @@
       <c r="E215">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G215">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>223</v>
       </c>
@@ -4841,8 +6111,14 @@
       <c r="E216">
         <v>2.0099999999999998</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G216">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>224</v>
       </c>
@@ -4858,8 +6134,14 @@
       <c r="E217">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G217">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>225</v>
       </c>
@@ -4875,8 +6157,14 @@
       <c r="E218">
         <v>6.04</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G218">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>226</v>
       </c>
@@ -4892,8 +6180,14 @@
       <c r="E219">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G219">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>227</v>
       </c>
@@ -4909,8 +6203,14 @@
       <c r="E220">
         <v>4.91</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G220">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>228</v>
       </c>
@@ -4926,8 +6226,14 @@
       <c r="E221">
         <v>6.27</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G221">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>229</v>
       </c>
@@ -4943,8 +6249,14 @@
       <c r="E222">
         <v>4.96</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G222">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>230</v>
       </c>
@@ -4960,8 +6272,14 @@
       <c r="E223">
         <v>5.76</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G223">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>231</v>
       </c>
@@ -4977,8 +6295,14 @@
       <c r="E224">
         <v>4.53</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G224">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>232</v>
       </c>
@@ -4994,8 +6318,14 @@
       <c r="E225">
         <v>4.62</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G225">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>233</v>
       </c>
@@ -5011,8 +6341,14 @@
       <c r="E226">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G226">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>234</v>
       </c>
@@ -5028,8 +6364,14 @@
       <c r="E227">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G227">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>235</v>
       </c>
@@ -5045,8 +6387,14 @@
       <c r="E228">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G228">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>236</v>
       </c>
@@ -5062,8 +6410,14 @@
       <c r="E229">
         <v>3</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G229">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>237</v>
       </c>
@@ -5079,8 +6433,14 @@
       <c r="E230">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G230">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>238</v>
       </c>
@@ -5096,8 +6456,14 @@
       <c r="E231">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G231">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>239</v>
       </c>
@@ -5113,8 +6479,14 @@
       <c r="E232">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G232">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>240</v>
       </c>
@@ -5130,8 +6502,14 @@
       <c r="E233">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G233">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>241</v>
       </c>
@@ -5147,8 +6525,14 @@
       <c r="E234">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G234">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>242</v>
       </c>
@@ -5164,8 +6548,14 @@
       <c r="E235">
         <v>3.12</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G235">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>243</v>
       </c>
@@ -5181,8 +6571,14 @@
       <c r="E236">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G236">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>244</v>
       </c>
@@ -5198,8 +6594,14 @@
       <c r="E237">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G237">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>245</v>
       </c>
@@ -5215,8 +6617,14 @@
       <c r="E238">
         <v>2.29</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G238">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>246</v>
       </c>
@@ -5232,8 +6640,14 @@
       <c r="E239">
         <v>4.54</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G239">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>247</v>
       </c>
@@ -5249,8 +6663,14 @@
       <c r="E240">
         <v>3.71</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G240">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>248</v>
       </c>
@@ -5266,8 +6686,14 @@
       <c r="E241">
         <v>5.28</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G241">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>249</v>
       </c>
@@ -5283,8 +6709,14 @@
       <c r="E242">
         <v>4.01</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G242">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>250</v>
       </c>
@@ -5300,8 +6732,14 @@
       <c r="E243">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G243">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>251</v>
       </c>
@@ -5317,8 +6755,14 @@
       <c r="E244">
         <v>2.2799999999999998</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G244">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>252</v>
       </c>
@@ -5334,8 +6778,14 @@
       <c r="E245">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G245">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>253</v>
       </c>
@@ -5351,8 +6801,14 @@
       <c r="E246">
         <v>3.76</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G246">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>254</v>
       </c>
@@ -5368,8 +6824,14 @@
       <c r="E247">
         <v>4.57</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G247">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>255</v>
       </c>
@@ -5385,8 +6847,14 @@
       <c r="E248">
         <v>8.67</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G248">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>256</v>
       </c>
@@ -5402,8 +6870,14 @@
       <c r="E249">
         <v>5.95</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G249">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>257</v>
       </c>
@@ -5419,8 +6893,14 @@
       <c r="E250">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G250">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>258</v>
       </c>
@@ -5436,8 +6916,14 @@
       <c r="E251">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G251">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>259</v>
       </c>
@@ -5453,8 +6939,14 @@
       <c r="E252">
         <v>1.1200000000000001</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G252">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>260</v>
       </c>
@@ -5470,8 +6962,14 @@
       <c r="E253">
         <v>2.17</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G253">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>261</v>
       </c>
@@ -5487,8 +6985,14 @@
       <c r="E254">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G254">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>262</v>
       </c>
@@ -5504,8 +7008,14 @@
       <c r="E255">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G255">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>263</v>
       </c>
@@ -5521,8 +7031,14 @@
       <c r="E256">
         <v>2.0699999999999998</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G256">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>264</v>
       </c>
@@ -5538,8 +7054,14 @@
       <c r="E257">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G257">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>265</v>
       </c>
@@ -5555,8 +7077,14 @@
       <c r="E258">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G258">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>266</v>
       </c>
@@ -5572,8 +7100,14 @@
       <c r="E259">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G259">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>267</v>
       </c>
@@ -5589,8 +7123,14 @@
       <c r="E260">
         <v>2.5499999999999998</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G260">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>268</v>
       </c>
@@ -5606,8 +7146,14 @@
       <c r="E261">
         <v>2.39</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G261">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>269</v>
       </c>
@@ -5623,8 +7169,14 @@
       <c r="E262">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G262">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>270</v>
       </c>
@@ -5640,8 +7192,14 @@
       <c r="E263">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G263">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>271</v>
       </c>
@@ -5657,8 +7215,14 @@
       <c r="E264">
         <v>4.41</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G264">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>272</v>
       </c>
@@ -5674,8 +7238,14 @@
       <c r="E265">
         <v>3.69</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G265">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>273</v>
       </c>
@@ -5691,8 +7261,14 @@
       <c r="E266">
         <v>6.08</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G266">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>274</v>
       </c>
@@ -5708,8 +7284,14 @@
       <c r="E267">
         <v>7.64</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G267">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>275</v>
       </c>
@@ -5725,8 +7307,14 @@
       <c r="E268">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G268">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>276</v>
       </c>
@@ -5741,6 +7329,12 @@
       </c>
       <c r="E269">
         <v>7.76</v>
+      </c>
+      <c r="F269" s="1">
+        <v>44230</v>
+      </c>
+      <c r="G269">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
